--- a/df_log_20250825.xlsx
+++ b/df_log_20250825.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC8DE48-FBA2-4D6A-B690-D4821B86A80C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDABE4A-F48E-422D-AD7A-DC4ACC935E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,138 +49,141 @@
     <t>https://www.bisco.or.kr/news/news01/index.asp</t>
   </si>
   <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>대구시설관리공단</t>
+  </si>
+  <si>
+    <t>https://www.dpfc.or.kr/sub.php?page_mode=1&amp;Page1=4&amp;Page2=3&amp;Page3=1&amp;Page4=2&amp;mode=list&amp;page_mode=&amp;board_name=notice&amp;search_field=total&amp;search_key=</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>인천시설관리공단</t>
+  </si>
+  <si>
+    <t>https://www.insiseol.or.kr/life/urban/notice/notice.jsp</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>대전시설관리공단</t>
+  </si>
+  <si>
+    <t>https://www.djsiseol.or.kr/portal/sub060301_list.asp</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>울산시설관리공단</t>
+  </si>
+  <si>
+    <t>https://www.uic.or.kr/notify/noti01.do</t>
+  </si>
+  <si>
+    <t>세종시설관리공단</t>
+  </si>
+  <si>
+    <t>https://www.sjfmc.or.kr/kor/sub02_01/cop/bbs/BBSMSTR_000000000013/selectBoardList.do</t>
+  </si>
+  <si>
+    <t>전남도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://road.jeonnam.go.kr/main/na/ntt/selectNttList.do?mi=9094&amp;bbsId=7</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>충남도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/road/selectBbsNttList.do?key=1975&amp;bbsNo=292&amp;searchCnd=SJ&amp;searchKrwd=</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>경북플랫폼</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/open_contents/section/newtech/page.do?mnu_uid=5890&amp;LARGE_CODE=630&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;&amp;mnu_order=5</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>경북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/open_contents/section/finace/page.do?mnu_uid=2737&amp;LARGE_CODE=330&amp;MEDIUM_CODE=30&amp;SMALL_CODE=20&amp;SMALL_CODE2=30&amp;mnu_order=4</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6786&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=10&amp;</t>
+  </si>
+  <si>
+    <t>경남도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.gyeongnam.go.kr/street/board/list.gyeong?boardId=BBS_0000020&amp;menuCd=DOM_000000704001000000&amp;contentsSid=239&amp;cpath=%2Fstreet</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>전북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>강원도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://state.gwd.go.kr/road/announce?pageIndex=1&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>광주도시관리공사</t>
+  </si>
+  <si>
+    <t>https://www.gumc.or.kr/news/bidding</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>https://www.gumc.or.kr/news/news</t>
+  </si>
+  <si>
+    <t>서울특별시건설신기술공법선정위원회</t>
+  </si>
+  <si>
+    <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
+  </si>
+  <si>
+    <t>부산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
     <t>2025-08-25</t>
   </si>
   <si>
-    <t>대구시설관리공단</t>
-  </si>
-  <si>
-    <t>https://www.dpfc.or.kr/sub.php?page_mode=1&amp;Page1=4&amp;Page2=3&amp;Page3=1&amp;Page4=2&amp;mode=list&amp;page_mode=&amp;board_name=notice&amp;search_field=total&amp;search_key=</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>인천시설관리공단</t>
-  </si>
-  <si>
-    <t>https://www.insiseol.or.kr/life/urban/notice/notice.jsp</t>
-  </si>
-  <si>
-    <t>2025-08-19</t>
-  </si>
-  <si>
-    <t>대전시설관리공단</t>
-  </si>
-  <si>
-    <t>https://www.djsiseol.or.kr/portal/sub060301_list.asp</t>
-  </si>
-  <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
-    <t>울산시설관리공단</t>
-  </si>
-  <si>
-    <t>https://www.uic.or.kr/notify/noti01.do</t>
-  </si>
-  <si>
-    <t>세종시설관리공단</t>
-  </si>
-  <si>
-    <t>https://www.sjfmc.or.kr/kor/sub02_01/cop/bbs/BBSMSTR_000000000013/selectBoardList.do</t>
-  </si>
-  <si>
-    <t>전남도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://road.jeonnam.go.kr/main/na/ntt/selectNttList.do?mi=9094&amp;bbsId=7</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>충남도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충북도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://www.chungbuk.go.kr/road/selectBbsNttList.do?key=1975&amp;bbsNo=292&amp;searchCnd=SJ&amp;searchKrwd=</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>경북플랫폼</t>
-  </si>
-  <si>
-    <t>https://www.gb.go.kr/Main/open_contents/section/newtech/page.do?mnu_uid=5890&amp;LARGE_CODE=630&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;&amp;mnu_order=5</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>경북도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://www.gb.go.kr/Main/open_contents/section/finace/page.do?mnu_uid=2737&amp;LARGE_CODE=330&amp;MEDIUM_CODE=30&amp;SMALL_CODE=20&amp;SMALL_CODE2=30&amp;mnu_order=4</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6786&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=10&amp;</t>
-  </si>
-  <si>
-    <t>경남도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://www.gyeongnam.go.kr/street/board/list.gyeong?boardId=BBS_0000020&amp;menuCd=DOM_000000704001000000&amp;contentsSid=239&amp;cpath=%2Fstreet</t>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>전북도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>강원도로관리사업소</t>
-  </si>
-  <si>
-    <t>https://state.gwd.go.kr/road/announce?pageIndex=1&amp;recordCountPerPage=90</t>
-  </si>
-  <si>
-    <t>광주도시관리공사</t>
-  </si>
-  <si>
-    <t>https://www.gumc.or.kr/news/bidding</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>https://www.gumc.or.kr/news/news</t>
-  </si>
-  <si>
-    <t>서울특별시건설신기술공법선정위원회</t>
-  </si>
-  <si>
-    <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
-  </si>
-  <si>
-    <t>부산광역시고시공고</t>
-  </si>
-  <si>
-    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
-  </si>
-  <si>
     <t>대구광역시고시공고</t>
   </si>
   <si>
@@ -205,1063 +208,1225 @@
     <t>https://www.daejeon.go.kr/drh/drhGosiList.do?gosigbn=A&amp;menuSeq=1908</t>
   </si>
   <si>
+    <t>울산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
+  </si>
+  <si>
+    <t>세종소개공고</t>
+  </si>
+  <si>
+    <t>https://www.sejong.go.kr/prog/publicNotice/kor/sub02_0303/C1/list.do</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>강원고시공고</t>
+  </si>
+  <si>
+    <t>https://state.gwd.go.kr/portal/bulletin/notification?pageIndex=1&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>충북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충남고시공고</t>
+  </si>
+  <si>
+    <t>전북고시공고</t>
+  </si>
+  <si>
+    <t>전남고시공고</t>
+  </si>
+  <si>
+    <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=0</t>
+  </si>
+  <si>
+    <t>경남고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gyeongnam.go.kr/index.gyeong?menuCd=DOM_000000135003009001&amp;pageLine=90</t>
+  </si>
+  <si>
+    <t>경기도감사위원회고시공고</t>
+  </si>
+  <si>
+    <t>https://newtech.gg.go.kr/main/pblanNow.do</t>
+  </si>
+  <si>
+    <t>경기도_고양시</t>
+  </si>
+  <si>
+    <t>https://eminwon.goyang.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;not_ancmt_se_code=01,04,05&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;initValue=Y&amp;countYn=Y&amp;epcCheck=Y&amp;yyyymmdd=&amp;ofr_pageSize=60</t>
+  </si>
+  <si>
+    <t>경기도_수원시</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=1</t>
+  </si>
+  <si>
+    <t>경기도_수원_권선구</t>
+  </si>
+  <si>
+    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3760000&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경기도_수원_장안구</t>
+  </si>
+  <si>
+    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3750000&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경기도_수원_팔달구</t>
+  </si>
+  <si>
+    <t>http://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3770000&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경기도_수원_영통구</t>
+  </si>
+  <si>
+    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=5610000&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경기도_용인시공법선정위원회</t>
+  </si>
+  <si>
+    <t>https://www.yongin.go.kr/user/bbs/BD_selectBbsList.do?q_bbsCode=1156</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>경기도_용인시처인구</t>
+  </si>
+  <si>
+    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+  </si>
+  <si>
+    <t>경기도_과천시</t>
+  </si>
+  <si>
+    <t>https://www.gccity.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>경기도_광주시</t>
+  </si>
+  <si>
+    <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
+  </si>
+  <si>
+    <t>경기도_구리시</t>
+  </si>
+  <si>
+    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_군포시</t>
+  </si>
+  <si>
+    <t>https://gunpo.go.kr/www/selectEminwonNoticeList.do?key=3907&amp;Not_ancmt_se_code=01&amp;list_gubun=N&amp;ofr_pageSize=10&amp;notAncmtSeCd=01&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>경기도_남양주시</t>
+  </si>
+  <si>
+    <t>https://www.nyj.go.kr/www/selectEminwonWebList.do?key=2492&amp;cpn=1</t>
+  </si>
+  <si>
+    <t>경기도_동두천시</t>
+  </si>
+  <si>
+    <t>https://www.ddc.go.kr/ddc/selectGosiList.do?key=340&amp;not_ancmt_se_code=04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_부천시</t>
+  </si>
+  <si>
+    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경기도_성남시</t>
+  </si>
+  <si>
+    <t>https://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>경기도_성남시수정구</t>
+  </si>
+  <si>
+    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3790000&amp;not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=&amp;nodate_recent_mm=12</t>
+  </si>
+  <si>
+    <t>경기도_성남시중원구</t>
+  </si>
+  <si>
+    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3800000&amp;not_ancmt_se_code=01,02,30,04,05,06&amp;recent_mm=12&amp;list_gubun=&amp;nodate_recent_mm=12</t>
+  </si>
+  <si>
+    <t>경기도_성남시분당구</t>
+  </si>
+  <si>
+    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3810000&amp;list_gubun=&amp;nodate_recent_mm=12&amp;not_ancmt_se_code=&amp;recent_mm=3</t>
+  </si>
+  <si>
+    <t>경기도_시흥시</t>
+  </si>
+  <si>
+    <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
+  </si>
+  <si>
+    <t>경기도_안산시</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=1</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>경기도_안양시</t>
+  </si>
+  <si>
+    <t>https://www.anyang.go.kr/main/emwsWebList.do?key=4101&amp;searchGosiSe=01,03,04&amp;pageUnit=40</t>
+  </si>
+  <si>
+    <t>경기도_양주시</t>
+  </si>
+  <si>
+    <t>https://www.yangju.go.kr/www/selectBbsNttList.do?bbsNo=13&amp;key=202</t>
+  </si>
+  <si>
+    <t>경기도_여주시</t>
+  </si>
+  <si>
+    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_오산시</t>
+  </si>
+  <si>
+    <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
+  </si>
+  <si>
+    <t>경기도_의왕시</t>
+  </si>
+  <si>
+    <t>https://eminwon.uiwang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=A&amp;epcCheck=''</t>
+  </si>
+  <si>
+    <t>경기도_의정부시</t>
+  </si>
+  <si>
+    <t>https://www.ui4u.go.kr/portal/saeol/gosiList.do?seCode=01&amp;mId=0301040000</t>
+  </si>
+  <si>
+    <t>경기도_이천시</t>
+  </si>
+  <si>
+    <t>https://www.icheon.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0402010000&amp;token=1707785005520</t>
+  </si>
+  <si>
+    <t>경기도_파주시</t>
+  </si>
+  <si>
+    <t>https://dong.paju.go.kr/dong/user/board/BD_board.list.do?bbsCd=1022&amp;q_ctgCd=4063</t>
+  </si>
+  <si>
+    <t>경기도_평택시</t>
+  </si>
+  <si>
+    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
+  </si>
+  <si>
+    <t>경기도_포천시</t>
+  </si>
+  <si>
+    <t>https://www.pocheon.go.kr/www/selectEminwonList.do?key=12563&amp;notAncmtSeCode=01&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>경기도_하남시</t>
+  </si>
+  <si>
+    <t>https://www.hanam.go.kr/www/selectGosiList.do?key=171&amp;not_ancmt_se_code=01,04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_화성시</t>
+  </si>
+  <si>
+    <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
+  </si>
+  <si>
+    <t>경기도_가평군</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_양평군</t>
+  </si>
+  <si>
+    <t>https://www.yp21.go.kr/www/selectBbsNttList.do?bbsNo=5&amp;key=1119&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경기도_연천군</t>
+  </si>
+  <si>
+    <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
+  </si>
+  <si>
+    <t>강원도_강릉시</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_동해시</t>
+  </si>
+  <si>
+    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>강원도_삼척시</t>
+  </si>
+  <si>
+    <t>https://www.samcheok.go.kr/media/00084/00095.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>강원도_속초시</t>
+  </si>
+  <si>
+    <t>https://www.sokcho.go.kr/sc/portal/sokchonews/notification</t>
+  </si>
+  <si>
+    <t>강원도_원주시</t>
+  </si>
+  <si>
+    <t>https://www.wonju.go.kr/www/selectBbsNttList.do?bbsNo=140&amp;key=216&amp;pageUnit=40</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_태백시</t>
+  </si>
+  <si>
+    <t>https://www.taebaek.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=352&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_고성군</t>
+  </si>
+  <si>
+    <t>https://eminwon.gwgs.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04</t>
+  </si>
+  <si>
+    <t>강원도_양구군</t>
+  </si>
+  <si>
+    <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>강원도_영월군</t>
+  </si>
+  <si>
+    <t>https://www.yw.go.kr/www/selectBbsNttList.do?bbsNo=17&amp;key=273&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_인제군</t>
+  </si>
+  <si>
+    <t>https://www.inje.go.kr/portal/adm/bulletin/notify</t>
+  </si>
+  <si>
+    <t>강원도_정선군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>강원도_철원군</t>
+  </si>
+  <si>
+    <t>https://www.cwg.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=1226&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_평창군</t>
+  </si>
+  <si>
+    <t>https://www.pc.go.kr/portal/government/government-notification</t>
+  </si>
+  <si>
+    <t>강원도_홍천군</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강원도_화천군</t>
+  </si>
+  <si>
+    <t>http://eminwon.ihc.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04</t>
+  </si>
+  <si>
+    <t>강원도_횡성군</t>
+  </si>
+  <si>
+    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_제천시</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_청주시</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_충주시</t>
+  </si>
+  <si>
+    <t>https://www.chungju.go.kr/www/selectEminwonList.do?key=510&amp;ofr_pageSize=90&amp;ancmt_se_code=01,02,04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_괴산군</t>
+  </si>
+  <si>
+    <t>https://eminwon.goesan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01&amp;list_gubun=</t>
+  </si>
+  <si>
+    <t>충청도_단양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.danyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>충청도_청주시_서원구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020&amp;cha_dep_code_nm=57250210000,57250220000,57250040000,57250270000,57250060000,57250070000,57250280000,57250090000</t>
+  </si>
+  <si>
+    <t>충청도_청주시_흥덕구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;cha_dep_code_nm=57300220000,57300210000,57300040000,57300230000,57300060000,57300070000,57300240000,57300090000,57102000000&amp;yyyy=2018</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_영동군</t>
+  </si>
+  <si>
+    <t>https://www.yd21.go.kr/kr/html/sub02/020103.html</t>
+  </si>
+  <si>
+    <t>충청도_옥천군</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_음성군</t>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_증평군</t>
+  </si>
+  <si>
+    <t>http://eminwon.jp.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>충청도_진천군</t>
+  </si>
+  <si>
+    <t>http://eminwon.jincheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06</t>
+  </si>
+  <si>
+    <t>충청도_계룡시</t>
+  </si>
+  <si>
+    <t>https://gyeryong.go.kr/kr/html/sub03/030102.html?GotoPage=1</t>
+  </si>
+  <si>
+    <t>충청도_공주시</t>
+  </si>
+  <si>
+    <t>https://www.gongju.go.kr/prog/saeolGosi/GOSI_01/sub04_03_01/list.do</t>
+  </si>
+  <si>
+    <t>https://www.gongju.go.kr/prog/saeolGosi/GOSI_03/sub04_03_03/list.do</t>
+  </si>
+  <si>
+    <t>충청도_논산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.nonsan21.net/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,05,04,06</t>
+  </si>
+  <si>
+    <t>충청도_당진시</t>
+  </si>
+  <si>
+    <t>https://eminwon.dangjin.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>충청도_보령시</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청도_서산시</t>
+  </si>
+  <si>
+    <t>https://www.seosan.go.kr/common/program/eminwonView.jsp?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;not_ancmt_se_code=01%2C04%2C06&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;cha_dep_code_nm=&amp;initValue=&amp;countYn=Y&amp;list_gubun=&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;mobile_code=00&amp;Key=B_Subject&amp;not_ancmt_mgt_no=&amp;temp=</t>
+  </si>
+  <si>
+    <t>충청도_아산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.asan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,06,07&amp;ofr_pageSize=10&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>충청도_금산군</t>
+  </si>
+  <si>
+    <t>https://www.geumsan.go.kr/kr/html/sub03/030302.html?GotoPage=1</t>
+  </si>
+  <si>
+    <t>20계속</t>
+  </si>
+  <si>
+    <t>충청도_부여군</t>
+  </si>
+  <si>
+    <t>https://www.buyeo.go.kr/_prog/_board/?code=news_02&amp;site_dvs_cd=kr&amp;menu_dvs_cd=040205</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>충청도_서천군</t>
+  </si>
+  <si>
+    <t>https://eminwon.seocheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01&amp;list_gubun=</t>
+  </si>
+  <si>
+    <t>충청도_예산군</t>
+  </si>
+  <si>
+    <t>https://www.yesan.go.kr/prog/saeolGosi/GOSI/kor/sub04_03_01/list.do</t>
+  </si>
+  <si>
+    <t>https://www.yesan.go.kr/prog/saeolGosi/02/kor/sub04_03_03/list.do</t>
+  </si>
+  <si>
+    <t>충청도_청양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>충청도_홍성군</t>
+  </si>
+  <si>
+    <t>https://www.hongseong.go.kr/prog/saeolGosi/kor/sub03_0204/GOSI_ALL/list.do</t>
+  </si>
+  <si>
+    <t>전라도_군산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>전라도_김제시</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>전라도_남원시</t>
+  </si>
+  <si>
+    <t>https://www.namwon.go.kr/board/post/list.do?boardUid=ff8080818ea1fec5018ea24137680031&amp;menuUid=ff8080818e3beff0018e4077131b007a&amp;beginDateStr=&amp;endDateStr=&amp;searchType=postTtl&amp;keyword=%EC%A0%9C%EC%95%88&amp;paramString=Us7WVBAxc13kgzv1JU3ayAslPphGSM%2FmlfdB4qtWC4OBeJsElaKmGl7kvQ4Au%2B3O&amp;size=10</t>
+  </si>
+  <si>
+    <t>등록일 2025-08-21</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>전라도_고창군</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>전라도_무주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>전라도_부안군</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>전라도_순창군</t>
+  </si>
+  <si>
+    <t>http://eminwon.sunchang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>전라도_완주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.wanju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전라도_임실군</t>
+  </si>
+  <si>
+    <t>https://eminwon.imsil.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+  </si>
+  <si>
+    <t>전라도_장수군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jangsu.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,04,05,03&amp;yyyy=2017&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>전라도_진안군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jinan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
+  </si>
+  <si>
+    <t>전라도_광양시</t>
+  </si>
+  <si>
+    <t>https://gwangyang.go.kr/saeol/gosi.es?mid=a11005020000&amp;type_code=02,04</t>
+  </si>
+  <si>
+    <t>전라도_나주시</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=1</t>
+  </si>
+  <si>
+    <t>전라도_목포시</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=1</t>
+  </si>
+  <si>
+    <t>전라도_순천시</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>전라도_여수시</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=1</t>
+  </si>
+  <si>
+    <t>전라도_강진군</t>
+  </si>
+  <si>
+    <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+  </si>
+  <si>
+    <t>전라도_고흥군</t>
+  </si>
+  <si>
+    <t>https://www.goheung.go.kr/contentsView.do?pageId=www99</t>
+  </si>
+  <si>
+    <t>전라도_곡성군</t>
+  </si>
+  <si>
+    <t>https://www.gokseong.go.kr/board/GosiList.do?menuNo=102001003000</t>
+  </si>
+  <si>
+    <t>전라도_구례군</t>
+  </si>
+  <si>
+    <t>https://www.gurye.go.kr/board/GosiList.do?not_ancmt_se_code=01,04,06,07&amp;menuNo=115004002001&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>전라도_담양군</t>
+  </si>
+  <si>
+    <t>https://www.damyang.go.kr/eminwon/searchList?domainId=DOM_0000001&amp;contentsSid=2&amp;menuCd=DOM_000000190001002001&amp;boardType=special&amp;listType=01</t>
+  </si>
+  <si>
+    <t>전라도_무안군</t>
+  </si>
+  <si>
+    <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
+  </si>
+  <si>
+    <t>전라도_보성군</t>
+  </si>
+  <si>
+    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?page=1</t>
+  </si>
+  <si>
+    <t>전라도_신안군</t>
+  </si>
+  <si>
+    <t>https://www.shinan.go.kr/home/www/openinfo/participation_07/participation_07_04/page.wscms?page=1</t>
+  </si>
+  <si>
+    <t>전라도_영광군</t>
+  </si>
+  <si>
+    <t>https://www.yeonggwang.go.kr/bbs/?b_id=gosigonggo&amp;site=headquarter_new&amp;mn=9059&amp;offset=0</t>
+  </si>
+  <si>
+    <t>전라도_영암군</t>
+  </si>
+  <si>
+    <t>https://www.yeongam.go.kr/home/www/open_information/yeongam_news/announcement/yeongam.go?page=1</t>
+  </si>
+  <si>
+    <t>전라도_완도군</t>
+  </si>
+  <si>
+    <t>https://www.wando.go.kr/wando/sub.cs?m=318&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>전라도_장성군</t>
+  </si>
+  <si>
+    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=1</t>
+  </si>
+  <si>
+    <t>전라도_장흥군</t>
+  </si>
+  <si>
+    <t>https://www.jangheung.go.kr/www/organization/news/notification</t>
+  </si>
+  <si>
+    <t>전라도_진도군</t>
+  </si>
+  <si>
+    <t>https://www.jindo.go.kr/home/gosi/general.cs?m=24&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>전라도_함평군</t>
+  </si>
+  <si>
+    <t>https://www.hampyeong.go.kr/pg/GosiList.do?pageId=www273</t>
+  </si>
+  <si>
+    <t>https://www.hampyeong.go.kr/boardList.do?boardId=ORGAN&amp;pageId=www274</t>
+  </si>
+  <si>
+    <t>전라도_해남군</t>
+  </si>
+  <si>
+    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e&amp;recordCountPerPage=100</t>
+  </si>
+  <si>
+    <t>전라도_화순군</t>
+  </si>
+  <si>
+    <t>https://eminwon.hwasun.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>경상도_경주시</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>경상도_김천시</t>
+  </si>
+  <si>
+    <t>https://www.gc.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mId=1202180100</t>
+  </si>
+  <si>
+    <t>경상도_문경시</t>
+  </si>
+  <si>
+    <t>https://www.gbmg.go.kr/portal/saeol/gosi/list.do?mId=0301060000</t>
+  </si>
+  <si>
+    <t>경상도_상주시</t>
+  </si>
+  <si>
+    <t>https://www.sangju.go.kr/page/10297/10606.tc?mn=10297&amp;recordCountPerPage=100</t>
+  </si>
+  <si>
+    <t>https://www.sangju.go.kr/dong/page/15910/11235.tc</t>
+  </si>
+  <si>
+    <t>경상도_안동시</t>
+  </si>
+  <si>
+    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>경상도_영천시</t>
+  </si>
+  <si>
+    <t>https://www.yc.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+  </si>
+  <si>
+    <t>https://www.yc.go.kr/portal/bbs/list.do?ptIdx=568&amp;mId=0301030000</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>경상도_포항시</t>
+  </si>
+  <si>
+    <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
+  </si>
+  <si>
+    <t>https://www.pohang.go.kr/portal/board/post/list.do?bcIdx=100&amp;mid=0201010000&amp;token=1749000149392</t>
+  </si>
+  <si>
+    <t>경상도_고령군</t>
+  </si>
+  <si>
+    <t>http://www.goryeong.go.kr/kor/boardList.do?IDX=154&amp;BRD_ID=1023&amp;page=1</t>
+  </si>
+  <si>
+    <t>http://www.goryeong.go.kr/kor/boardList.do?IDX=152&amp;BRD_ID=1019&amp;page=1</t>
+  </si>
+  <si>
+    <t>경상도_군위군</t>
+  </si>
+  <si>
+    <t>https://www.gunwi.go.kr/ko/page.do?mnu_uid=666&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>경상도_봉화군</t>
+  </si>
+  <si>
+    <t>https://eminwon.bonghwa.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>경상도_성주군</t>
+  </si>
+  <si>
+    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>https://sj.go.kr/S1012/page.do?mnu_uid=2189&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>경상도_영덕군</t>
+  </si>
+  <si>
+    <t>https://www.yd.go.kr/?page_id=763&amp;pageid=1</t>
+  </si>
+  <si>
+    <t>https://www.yd.go.kr/?page_id=752&amp;pageid=1</t>
+  </si>
+  <si>
+    <t>경상도_영양군</t>
+  </si>
+  <si>
+    <t>https://www.yyg.go.kr/www/organization/yyg_news/notification?page=1</t>
+  </si>
+  <si>
+    <t>경상도_예천군</t>
+  </si>
+  <si>
+    <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=1</t>
+  </si>
+  <si>
+    <t>https://www.ycg.kr/open.content/ko/administrative/news/notice/?p=1</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>경상도_의성군</t>
+  </si>
+  <si>
+    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=157&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=156&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>경상도_청송군</t>
+  </si>
+  <si>
+    <t>https://www.cs.go.kr/news/00002679/00006203.web</t>
+  </si>
+  <si>
+    <t>등록일</t>
+  </si>
+  <si>
+    <t>https://www.cs.go.kr/news/00002679/00002687.web?upunit=50&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/bbs/list.do?ptIdx=111&amp;mId=0201010000</t>
+  </si>
+  <si>
+    <t>경상도_창원시</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10429/10430.web?gcode=1009&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_창원시_의창구</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/gu/11094/11462/11476.web?cpage=1</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>경상도_창원시_성산구</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/gu/11098/11607/11640.web</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>경상도_창원시_마산합포구</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/gu/11099/11806/11850.web</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>경상도_창원시_마산회원구</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/gu/11100/12100/12138.web?cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_창원시_진해구</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/gu/11101/12355/12400.web</t>
+  </si>
+  <si>
+    <t>경상도_거제시</t>
+  </si>
+  <si>
+    <t>https://www.geoje.go.kr/index.geoje?menuCd=DOM_000008902001002001&amp;listRow=90</t>
+  </si>
+  <si>
+    <t>경상도_김해시</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00024.web?gcode=1171&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_밀양시</t>
+  </si>
+  <si>
+    <t>https://www.miryang.go.kr/web/eMinwonList.do?mnNo=20903000000&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>https://www.miryang.go.kr/web/bbs/selectNoticeList.do?mnNo=20901000000&amp;owd=&amp;searchCnd=&amp;searchWrd=&amp;searchCateId=&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>경상도_사천시</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=1</t>
+  </si>
+  <si>
+    <t>공고기간 : 2025-08-25</t>
+  </si>
+  <si>
+    <t>경상도_양산시</t>
+  </si>
+  <si>
+    <t>https://www.yangsan.go.kr/portal/saeol/gosi/list.do?mid=0102010000</t>
+  </si>
+  <si>
+    <t>https://www.yangsan.go.kr/portal/board/post/list.do?bcIdx=293&amp;mid=0101010000</t>
+  </si>
+  <si>
+    <t>경상도_진주시</t>
+  </si>
+  <si>
+    <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_통영시</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_남해읍</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%82%A8%ED%95%B4%EC%9D%8D&amp;pageCd=WW0512010103&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_산청군</t>
+  </si>
+  <si>
+    <t>https://www.sancheong.go.kr/www/selectBbsNttList.do?bbsNo=118&amp;key=158&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>경상도_남해군_이동면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%9D%B4%EB%8F%99%EB%A9%B4&amp;pageCd=WW0512030402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_의령군</t>
+  </si>
+  <si>
+    <t>https://www.uiryeong.go.kr/board/list.uiryeong?boardId=BBS_0000070&amp;menuCd=DOM_000000203003001001&amp;contentsSid=201&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_상주면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%83%81%EC%A3%BC%EB%A9%B4&amp;pageCd=WW0512040402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_창녕군</t>
+  </si>
+  <si>
+    <t>https://www.cng.go.kr/01541/01539/01553.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_삼동면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%82%BC%EB%8F%99%EB%A9%B4&amp;pageCd=WW0512050402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_하동군</t>
+  </si>
+  <si>
+    <t>https://www.hadong.go.kr/media/00012.web?cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_미조면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%AF%B8%EC%A1%B0%EB%A9%B4&amp;pageCd=WW0512060402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_함안군</t>
+  </si>
+  <si>
+    <t>https://www.haman.go.kr/00960/00962.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_남면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%82%A8%EB%A9%B4&amp;pageCd=WW0512070402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_함양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.hygn.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,06,07</t>
+  </si>
+  <si>
+    <t>경상도_남해군_서면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%84%9C%EB%A9%B4&amp;pageCd=WW0512080402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>경상도_합천군</t>
+  </si>
+  <si>
+    <t>https://eminwon.hc.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,06</t>
+  </si>
+  <si>
+    <t>경상도_남해군_고현면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EA%B3%A0%ED%98%84%EB%A9%B4&amp;pageCd=WW0512090402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_설천면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%84%A4%EC%B2%9C%EB%A9%B4&amp;pageCd=WW0512100402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>경상도_거창군</t>
+  </si>
+  <si>
+    <t>https://www.geochang.go.kr/saeol/gosi.do?pageCd=NW0102000000&amp;siteGubun=news&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>경상도_남해군_창선면</t>
+  </si>
+  <si>
+    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%B0%BD%EC%84%A0%EB%A9%B4&amp;pageCd=WW0512110402&amp;siteGubun=portal</t>
+  </si>
+  <si>
+    <t>경상도_울릉군</t>
+  </si>
+  <si>
+    <t>https://www.ulleung.go.kr/ko/page.do?pageNo=1&amp;mnu_uid=571</t>
+  </si>
+  <si>
     <t>2025-08-26</t>
   </si>
   <si>
-    <t>울산광역시고시공고</t>
-  </si>
-  <si>
-    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
-  </si>
-  <si>
-    <t>세종소개공고</t>
-  </si>
-  <si>
-    <t>https://www.sejong.go.kr/prog/publicNotice/kor/sub02_0303/C1/list.do</t>
-  </si>
-  <si>
-    <t>경기고시공고</t>
-  </si>
-  <si>
-    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
-  </si>
-  <si>
-    <t>강원고시공고</t>
-  </si>
-  <si>
-    <t>https://state.gwd.go.kr/portal/bulletin/notification?pageIndex=1&amp;recordCountPerPage=90</t>
-  </si>
-  <si>
-    <t>충북고시공고</t>
-  </si>
-  <si>
-    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충남고시공고</t>
-  </si>
-  <si>
-    <t>전북고시공고</t>
-  </si>
-  <si>
-    <t>전남고시공고</t>
-  </si>
-  <si>
-    <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경북고시공고</t>
-  </si>
-  <si>
-    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=0</t>
-  </si>
-  <si>
-    <t>경남고시공고</t>
-  </si>
-  <si>
-    <t>https://www.gyeongnam.go.kr/index.gyeong?menuCd=DOM_000000135003009001&amp;pageLine=90</t>
-  </si>
-  <si>
-    <t>경기도감사위원회고시공고</t>
-  </si>
-  <si>
-    <t>https://newtech.gg.go.kr/main/pblanNow.do</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>경기도_고양시</t>
-  </si>
-  <si>
-    <t>https://eminwon.goyang.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;not_ancmt_se_code=01,04,05&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;initValue=Y&amp;countYn=Y&amp;epcCheck=Y&amp;yyyymmdd=&amp;ofr_pageSize=60</t>
-  </si>
-  <si>
-    <t>경기도_수원시</t>
-  </si>
-  <si>
-    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=1</t>
-  </si>
-  <si>
-    <t>경기도_수원_권선구</t>
-  </si>
-  <si>
-    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3760000&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경기도_수원_장안구</t>
-  </si>
-  <si>
-    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3750000&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경기도_수원_팔달구</t>
-  </si>
-  <si>
-    <t>http://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=3770000&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경기도_수원_영통구</t>
-  </si>
-  <si>
-    <t>https://eminwon.suwon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04&amp;cgg_code=5610000&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경기도_용인시공법선정위원회</t>
-  </si>
-  <si>
-    <t>https://www.yongin.go.kr/user/bbs/BD_selectBbsList.do?q_bbsCode=1156</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>경기도_용인시처인구</t>
-  </si>
-  <si>
-    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
-  </si>
-  <si>
-    <t>경기도_과천시</t>
-  </si>
-  <si>
-    <t>https://www.gccity.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
-  </si>
-  <si>
-    <t>경기도_광명시</t>
-  </si>
-  <si>
-    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
-  </si>
-  <si>
-    <t>경기도_광주시</t>
-  </si>
-  <si>
-    <t>https://www.gjcity.go.kr/portal/saeol/gosi/list.do?mId=0202010000&amp;token=1688448678130</t>
-  </si>
-  <si>
-    <t>경기도_구리시</t>
-  </si>
-  <si>
-    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_군포시</t>
-  </si>
-  <si>
-    <t>https://gunpo.go.kr/www/selectEminwonNoticeList.do?key=3907&amp;Not_ancmt_se_code=01&amp;list_gubun=N&amp;ofr_pageSize=10&amp;notAncmtSeCd=01&amp;pageUnit=90</t>
-  </si>
-  <si>
-    <t>경기도_김포시</t>
-  </si>
-  <si>
-    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
-  </si>
-  <si>
-    <t>경기도_남양주시</t>
-  </si>
-  <si>
-    <t>https://www.nyj.go.kr/www/selectEminwonWebList.do?key=2492&amp;cpn=1</t>
-  </si>
-  <si>
-    <t>경기도_동두천시</t>
-  </si>
-  <si>
-    <t>https://www.ddc.go.kr/ddc/selectGosiList.do?key=340&amp;not_ancmt_se_code=04&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_부천시</t>
-  </si>
-  <si>
-    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경기도_성남시</t>
-  </si>
-  <si>
-    <t>https://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
-  </si>
-  <si>
-    <t>경기도_성남시수정구</t>
-  </si>
-  <si>
-    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3790000&amp;not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=&amp;nodate_recent_mm=12</t>
-  </si>
-  <si>
-    <t>경기도_성남시중원구</t>
-  </si>
-  <si>
-    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3800000&amp;not_ancmt_se_code=01,02,30,04,05,06&amp;recent_mm=12&amp;list_gubun=&amp;nodate_recent_mm=12</t>
-  </si>
-  <si>
-    <t>경기도_성남시분당구</t>
-  </si>
-  <si>
-    <t>http://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?cgg_code=3810000&amp;list_gubun=&amp;nodate_recent_mm=12&amp;not_ancmt_se_code=&amp;recent_mm=3</t>
-  </si>
-  <si>
-    <t>경기도_시흥시</t>
-  </si>
-  <si>
-    <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
-  </si>
-  <si>
-    <t>경기도_안산시</t>
-  </si>
-  <si>
-    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=1</t>
-  </si>
-  <si>
-    <t>경기도_안성시</t>
-  </si>
-  <si>
-    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
-  </si>
-  <si>
-    <t>경기도_안양시</t>
-  </si>
-  <si>
-    <t>https://www.anyang.go.kr/main/emwsWebList.do?key=4101&amp;searchGosiSe=01,03,04&amp;pageUnit=40</t>
-  </si>
-  <si>
-    <t>경기도_양주시</t>
-  </si>
-  <si>
-    <t>https://www.yangju.go.kr/www/selectBbsNttList.do?bbsNo=13&amp;key=202</t>
-  </si>
-  <si>
-    <t>경기도_여주시</t>
-  </si>
-  <si>
-    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_오산시</t>
-  </si>
-  <si>
-    <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
-  </si>
-  <si>
-    <t>경기도_의왕시</t>
-  </si>
-  <si>
-    <t>https://eminwon.uiwang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=A&amp;epcCheck=''</t>
-  </si>
-  <si>
-    <t>경기도_의정부시</t>
-  </si>
-  <si>
-    <t>https://www.ui4u.go.kr/portal/saeol/gosiList.do?seCode=01&amp;mId=0301040000</t>
-  </si>
-  <si>
-    <t>경기도_이천시</t>
-  </si>
-  <si>
-    <t>https://www.icheon.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0402010000&amp;token=1707785005520</t>
-  </si>
-  <si>
-    <t>경기도_파주시</t>
-  </si>
-  <si>
-    <t>https://dong.paju.go.kr/dong/user/board/BD_board.list.do?bbsCd=1022&amp;q_ctgCd=4063</t>
-  </si>
-  <si>
-    <t>경기도_평택시</t>
-  </si>
-  <si>
-    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
-  </si>
-  <si>
-    <t>경기도_포천시</t>
-  </si>
-  <si>
-    <t>https://www.pocheon.go.kr/www/selectEminwonList.do?key=12563&amp;notAncmtSeCode=01&amp;pageUnit=90</t>
-  </si>
-  <si>
-    <t>경기도_하남시</t>
-  </si>
-  <si>
-    <t>https://www.hanam.go.kr/www/selectGosiList.do?key=171&amp;not_ancmt_se_code=01,04&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_화성시</t>
-  </si>
-  <si>
-    <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
-  </si>
-  <si>
-    <t>경기도_가평군</t>
-  </si>
-  <si>
-    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_양평군</t>
-  </si>
-  <si>
-    <t>https://www.yp21.go.kr/www/selectBbsNttList.do?bbsNo=5&amp;key=1119&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>경기도_연천군</t>
-  </si>
-  <si>
-    <t>https://www.yeoncheon.go.kr/www/selectGosiList.do?key=3393&amp;not_ancmt_se_code=01&amp;pageUnit=50</t>
-  </si>
-  <si>
-    <t>강원도_강릉시</t>
-  </si>
-  <si>
-    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_동해시</t>
-  </si>
-  <si>
-    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
-  </si>
-  <si>
-    <t>강원도_삼척시</t>
-  </si>
-  <si>
-    <t>https://www.samcheok.go.kr/media/00084/00095.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>강원도_속초시</t>
-  </si>
-  <si>
-    <t>https://www.sokcho.go.kr/sc/portal/sokchonews/notification</t>
-  </si>
-  <si>
-    <t>강원도_원주시</t>
-  </si>
-  <si>
-    <t>https://www.wonju.go.kr/www/selectBbsNttList.do?bbsNo=140&amp;key=216&amp;pageUnit=40</t>
-  </si>
-  <si>
-    <t>강원도_춘천시</t>
-  </si>
-  <si>
-    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_태백시</t>
-  </si>
-  <si>
-    <t>https://www.taebaek.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=352&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_고성군</t>
-  </si>
-  <si>
-    <t>https://eminwon.gwgs.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04</t>
-  </si>
-  <si>
-    <t>강원도_양구군</t>
-  </si>
-  <si>
-    <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
-  </si>
-  <si>
-    <t>강원도_양양군</t>
-  </si>
-  <si>
-    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
-  </si>
-  <si>
-    <t>강원도_영월군</t>
-  </si>
-  <si>
-    <t>https://www.yw.go.kr/www/selectBbsNttList.do?bbsNo=17&amp;key=273&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_인제군</t>
-  </si>
-  <si>
-    <t>https://www.inje.go.kr/portal/adm/bulletin/notify</t>
-  </si>
-  <si>
-    <t>강원도_정선군</t>
-  </si>
-  <si>
-    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
-  </si>
-  <si>
-    <t>강원도_철원군</t>
-  </si>
-  <si>
-    <t>https://www.cwg.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=1226&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_평창군</t>
-  </si>
-  <si>
-    <t>https://www.pc.go.kr/portal/government/government-notification</t>
-  </si>
-  <si>
-    <t>강원도_홍천군</t>
-  </si>
-  <si>
-    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>강원도_화천군</t>
-  </si>
-  <si>
-    <t>http://eminwon.ihc.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04</t>
-  </si>
-  <si>
-    <t>강원도_횡성군</t>
-  </si>
-  <si>
-    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_제천시</t>
-  </si>
-  <si>
-    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_청주시</t>
-  </si>
-  <si>
-    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_충주시</t>
-  </si>
-  <si>
-    <t>https://www.chungju.go.kr/www/selectEminwonList.do?key=510&amp;ofr_pageSize=90&amp;ancmt_se_code=01,02,04&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_괴산군</t>
-  </si>
-  <si>
-    <t>https://eminwon.goesan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01&amp;list_gubun=</t>
-  </si>
-  <si>
-    <t>충청도_단양군</t>
-  </si>
-  <si>
-    <t>https://eminwon.danyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>충청도_청주시_상당구</t>
-  </si>
-  <si>
-    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
-  </si>
-  <si>
-    <t>충청도_청주시_서원구</t>
-  </si>
-  <si>
-    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020&amp;cha_dep_code_nm=57250210000,57250220000,57250040000,57250270000,57250060000,57250070000,57250280000,57250090000</t>
-  </si>
-  <si>
-    <t>충청도_청주시_흥덕구</t>
-  </si>
-  <si>
-    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;cha_dep_code_nm=57300220000,57300210000,57300040000,57300230000,57300060000,57300070000,57300240000,57300090000,57102000000&amp;yyyy=2018</t>
-  </si>
-  <si>
-    <t>충청도_보은군</t>
-  </si>
-  <si>
-    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_영동군</t>
-  </si>
-  <si>
-    <t>https://www.yd21.go.kr/kr/html/sub02/020103.html</t>
-  </si>
-  <si>
-    <t>충청도_옥천군</t>
-  </si>
-  <si>
-    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_음성군</t>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_증평군</t>
-  </si>
-  <si>
-    <t>http://eminwon.jp.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04,06&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>충청도_진천군</t>
-  </si>
-  <si>
-    <t>http://eminwon.jincheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06</t>
-  </si>
-  <si>
-    <t>충청도_계룡시</t>
-  </si>
-  <si>
-    <t>https://gyeryong.go.kr/kr/html/sub03/030102.html?GotoPage=1</t>
-  </si>
-  <si>
-    <t>충청도_공주시</t>
-  </si>
-  <si>
-    <t>https://www.gongju.go.kr/prog/saeolGosi/GOSI_01/sub04_03_01/list.do</t>
-  </si>
-  <si>
-    <t>https://www.gongju.go.kr/prog/saeolGosi/GOSI_03/sub04_03_03/list.do</t>
-  </si>
-  <si>
-    <t>충청도_논산시</t>
-  </si>
-  <si>
-    <t>https://eminwon.nonsan21.net/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,05,04,06</t>
-  </si>
-  <si>
-    <t>충청도_당진시</t>
-  </si>
-  <si>
-    <t>https://eminwon.dangjin.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>충청도_보령시</t>
-  </si>
-  <si>
-    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=1</t>
-  </si>
-  <si>
-    <t>충청도_서산시</t>
-  </si>
-  <si>
-    <t>https://www.seosan.go.kr/common/program/eminwonView.jsp?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;not_ancmt_se_code=01%2C04%2C06&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;cha_dep_code_nm=&amp;initValue=&amp;countYn=Y&amp;list_gubun=&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;mobile_code=00&amp;Key=B_Subject&amp;not_ancmt_mgt_no=&amp;temp=</t>
-  </si>
-  <si>
-    <t>충청도_아산시</t>
-  </si>
-  <si>
-    <t>https://eminwon.asan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,06,07&amp;ofr_pageSize=10&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>충청도_천안시</t>
-  </si>
-  <si>
-    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
-  </si>
-  <si>
-    <t>충청도_금산군</t>
-  </si>
-  <si>
-    <t>https://www.geumsan.go.kr/kr/html/sub03/030302.html?GotoPage=1</t>
-  </si>
-  <si>
-    <t>20계속</t>
-  </si>
-  <si>
-    <t>충청도_부여군</t>
-  </si>
-  <si>
-    <t>https://www.buyeo.go.kr/_prog/_board/?code=news_02&amp;site_dvs_cd=kr&amp;menu_dvs_cd=040205</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>충청도_서천군</t>
-  </si>
-  <si>
-    <t>https://eminwon.seocheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01&amp;list_gubun=</t>
-  </si>
-  <si>
-    <t>충청도_예산군</t>
-  </si>
-  <si>
-    <t>https://www.yesan.go.kr/prog/saeolGosi/GOSI/kor/sub04_03_01/list.do</t>
-  </si>
-  <si>
-    <t>https://www.yesan.go.kr/prog/saeolGosi/02/kor/sub04_03_03/list.do</t>
-  </si>
-  <si>
-    <t>충청도_청양군</t>
-  </si>
-  <si>
-    <t>https://eminwon.cheongyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>충청도_태안군</t>
-  </si>
-  <si>
-    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>충청도_홍성군</t>
-  </si>
-  <si>
-    <t>https://www.hongseong.go.kr/prog/saeolGosi/kor/sub03_0204/GOSI_ALL/list.do</t>
-  </si>
-  <si>
-    <t>전라도_군산시</t>
-  </si>
-  <si>
-    <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
-  </si>
-  <si>
-    <t>전라도_김제시</t>
-  </si>
-  <si>
-    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>전라도_남원시</t>
-  </si>
-  <si>
-    <t>https://www.namwon.go.kr/board/post/list.do?boardUid=ff8080818ea1fec5018ea24137680031&amp;menuUid=ff8080818e3beff0018e4077131b007a&amp;beginDateStr=&amp;endDateStr=&amp;searchType=postTtl&amp;keyword=%EC%A0%9C%EC%95%88&amp;paramString=Us7WVBAxc13kgzv1JU3ayAslPphGSM%2FmlfdB4qtWC4OBeJsElaKmGl7kvQ4Au%2B3O&amp;size=10</t>
-  </si>
-  <si>
-    <t>등록일 2025-08-21</t>
-  </si>
-  <si>
-    <t>전라도_익산시</t>
-  </si>
-  <si>
-    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
-  </si>
-  <si>
-    <t>전라도_전주시</t>
-  </si>
-  <si>
-    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>전라도_정읍시</t>
-  </si>
-  <si>
-    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
-  </si>
-  <si>
-    <t>전라도_고창군</t>
-  </si>
-  <si>
-    <t>https://www.gochang.go.kr/board/list.gochang?boardId=BBS_0000180&amp;menuCd=DOM_000000102003007000&amp;contentsSid=2682&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>전라도_무주군</t>
-  </si>
-  <si>
-    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
-  </si>
-  <si>
-    <t>전라도_부안군</t>
-  </si>
-  <si>
-    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>전라도_순창군</t>
-  </si>
-  <si>
-    <t>http://eminwon.sunchang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
-  </si>
-  <si>
-    <t>전라도_완주군</t>
-  </si>
-  <si>
-    <t>https://eminwon.wanju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>전라도_임실군</t>
-  </si>
-  <si>
-    <t>https://eminwon.imsil.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
-  </si>
-  <si>
-    <t>전라도_장수군</t>
-  </si>
-  <si>
-    <t>https://eminwon.jangsu.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,04,05,03&amp;yyyy=2017&amp;subCheck=Y</t>
-  </si>
-  <si>
-    <t>전라도_진안군</t>
-  </si>
-  <si>
-    <t>https://eminwon.jinan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;subcheck=Y</t>
-  </si>
-  <si>
-    <t>전라도_광양시</t>
-  </si>
-  <si>
-    <t>https://gwangyang.go.kr/saeol/gosi.es?mid=a11005020000&amp;type_code=02,04</t>
-  </si>
-  <si>
-    <t>전라도_나주시</t>
-  </si>
-  <si>
-    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=1</t>
-  </si>
-  <si>
-    <t>전라도_목포시</t>
-  </si>
-  <si>
-    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=1</t>
-  </si>
-  <si>
-    <t>전라도_순천시</t>
-  </si>
-  <si>
-    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>전라도_여수시</t>
-  </si>
-  <si>
-    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=1</t>
-  </si>
-  <si>
-    <t>전라도_강진군</t>
-  </si>
-  <si>
-    <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
-  </si>
-  <si>
-    <t>전라도_고흥군</t>
-  </si>
-  <si>
-    <t>https://www.goheung.go.kr/contentsView.do?pageId=www99</t>
-  </si>
-  <si>
-    <t>전라도_곡성군</t>
-  </si>
-  <si>
-    <t>https://www.gokseong.go.kr/board/GosiList.do?menuNo=102001003000</t>
-  </si>
-  <si>
-    <t>전라도_구례군</t>
-  </si>
-  <si>
-    <t>https://www.gurye.go.kr/board/GosiList.do?not_ancmt_se_code=01,04,06,07&amp;menuNo=115004002001&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>전라도_담양군</t>
-  </si>
-  <si>
-    <t>https://www.damyang.go.kr/eminwon/searchList?domainId=DOM_0000001&amp;contentsSid=2&amp;menuCd=DOM_000000190001002001&amp;boardType=special&amp;listType=01</t>
-  </si>
-  <si>
-    <t>전라도_무안군</t>
-  </si>
-  <si>
-    <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
-  </si>
-  <si>
-    <t>전라도_보성군</t>
-  </si>
-  <si>
-    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?page=1</t>
-  </si>
-  <si>
-    <t>전라도_신안군</t>
-  </si>
-  <si>
-    <t>https://www.shinan.go.kr/home/www/openinfo/participation_07/participation_07_04/page.wscms?page=1</t>
-  </si>
-  <si>
-    <t>전라도_영광군</t>
-  </si>
-  <si>
-    <t>https://www.yeonggwang.go.kr/bbs/?b_id=gosigonggo&amp;site=headquarter_new&amp;mn=9059&amp;offset=0</t>
-  </si>
-  <si>
-    <t>전라도_영암군</t>
-  </si>
-  <si>
-    <t>https://www.yeongam.go.kr/home/www/open_information/yeongam_news/announcement/yeongam.go?page=1</t>
-  </si>
-  <si>
-    <t>전라도_완도군</t>
-  </si>
-  <si>
-    <t>https://www.wando.go.kr/wando/sub.cs?m=318&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>전라도_장성군</t>
-  </si>
-  <si>
-    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=1</t>
-  </si>
-  <si>
-    <t>전라도_장흥군</t>
-  </si>
-  <si>
-    <t>https://www.jangheung.go.kr/www/organization/news/notification</t>
-  </si>
-  <si>
-    <t>전라도_진도군</t>
-  </si>
-  <si>
-    <t>https://www.jindo.go.kr/home/gosi/general.cs?m=24&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>전라도_함평군</t>
-  </si>
-  <si>
-    <t>https://www.hampyeong.go.kr/pg/GosiList.do?pageId=www273</t>
-  </si>
-  <si>
-    <t>https://www.hampyeong.go.kr/boardList.do?boardId=ORGAN&amp;pageId=www274</t>
-  </si>
-  <si>
-    <t>전라도_해남군</t>
-  </si>
-  <si>
-    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e&amp;recordCountPerPage=100</t>
-  </si>
-  <si>
-    <t>전라도_화순군</t>
-  </si>
-  <si>
-    <t>https://eminwon.hwasun.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07&amp;epcCheck=Y</t>
-  </si>
-  <si>
-    <t>경상도_경산시</t>
-  </si>
-  <si>
-    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
-  </si>
-  <si>
-    <t>경상도_경주시</t>
-  </si>
-  <si>
-    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>경상도_구미시</t>
-  </si>
-  <si>
-    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
-  </si>
-  <si>
-    <t>경상도_김천시</t>
-  </si>
-  <si>
-    <t>https://www.gc.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mId=1202180100</t>
-  </si>
-  <si>
-    <t>경상도_문경시</t>
-  </si>
-  <si>
-    <t>https://www.gbmg.go.kr/portal/saeol/gosi/list.do?mId=0301060000</t>
-  </si>
-  <si>
-    <t>경상도_상주시</t>
-  </si>
-  <si>
-    <t>https://www.sangju.go.kr/page/10297/10606.tc?mn=10297&amp;recordCountPerPage=100</t>
-  </si>
-  <si>
-    <t>https://www.sangju.go.kr/dong/page/15910/11235.tc</t>
-  </si>
-  <si>
-    <t>경상도_안동시</t>
-  </si>
-  <si>
-    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
-  </si>
-  <si>
-    <t>경상도_영주시</t>
-  </si>
-  <si>
-    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
-  </si>
-  <si>
-    <t>경상도_영천시</t>
-  </si>
-  <si>
-    <t>https://www.yc.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
-  </si>
-  <si>
-    <t>https://www.yc.go.kr/portal/bbs/list.do?ptIdx=568&amp;mId=0301030000</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>경상도_포항시</t>
-  </si>
-  <si>
-    <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
-  </si>
-  <si>
-    <t>https://www.pohang.go.kr/portal/board/post/list.do?bcIdx=100&amp;mid=0201010000&amp;token=1749000149392</t>
-  </si>
-  <si>
-    <t>2025-08-25(월)</t>
-  </si>
-  <si>
-    <t>경상도_고령군</t>
-  </si>
-  <si>
-    <t>http://www.goryeong.go.kr/kor/boardList.do?IDX=154&amp;BRD_ID=1023&amp;page=1</t>
-  </si>
-  <si>
-    <t>http://www.goryeong.go.kr/kor/boardList.do?IDX=152&amp;BRD_ID=1019&amp;page=1</t>
-  </si>
-  <si>
-    <t>경상도_군위군</t>
-  </si>
-  <si>
-    <t>https://www.gunwi.go.kr/ko/page.do?mnu_uid=666&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>경상도_봉화군</t>
-  </si>
-  <si>
-    <t>https://eminwon.bonghwa.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04&amp;list_gubun=A</t>
-  </si>
-  <si>
-    <t>경상도_성주군</t>
-  </si>
-  <si>
-    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>https://sj.go.kr/S1012/page.do?mnu_uid=2189&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>경상도_영덕군</t>
-  </si>
-  <si>
-    <t>https://www.yd.go.kr/?page_id=763&amp;pageid=1</t>
-  </si>
-  <si>
-    <t>https://www.yd.go.kr/?page_id=752&amp;pageid=1</t>
-  </si>
-  <si>
-    <t>경상도_영양군</t>
-  </si>
-  <si>
-    <t>https://www.yyg.go.kr/www/organization/yyg_news/notification?page=1</t>
-  </si>
-  <si>
-    <t>경상도_예천군</t>
-  </si>
-  <si>
-    <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=1</t>
-  </si>
-  <si>
-    <t>https://www.ycg.kr/open.content/ko/administrative/news/notice/?p=1</t>
-  </si>
-  <si>
-    <t>경상도_울진군</t>
-  </si>
-  <si>
-    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
-  </si>
-  <si>
-    <t>경상도_의성군</t>
-  </si>
-  <si>
-    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=157&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=156&amp;pageNo=1</t>
-  </si>
-  <si>
-    <t>경상도_청도군</t>
-  </si>
-  <si>
-    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
-  </si>
-  <si>
-    <t>경상도_청송군</t>
-  </si>
-  <si>
-    <t>https://www.cs.go.kr/news/00002679/00006203.web</t>
-  </si>
-  <si>
-    <t>등록일</t>
-  </si>
-  <si>
-    <t>https://www.cs.go.kr/news/00002679/00002687.web?upunit=50&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>2025-08-25 농정과 조회수 : 27</t>
-  </si>
-  <si>
-    <t>경상도_칠곡군</t>
-  </si>
-  <si>
-    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
-  </si>
-  <si>
-    <t>https://www.chilgok.go.kr/portal/bbs/list.do?ptIdx=111&amp;mId=0201010000</t>
-  </si>
-  <si>
-    <t>경상도_창원시</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/10310/10429/10430.web?gcode=1009&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_창원시_의창구</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/gu/11094/11462/11476.web?cpage=1</t>
-  </si>
-  <si>
-    <t>2025-08-12</t>
-  </si>
-  <si>
-    <t>경상도_창원시_성산구</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/gu/11098/11607/11640.web</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>경상도_창원시_마산합포구</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/gu/11099/11806/11850.web</t>
-  </si>
-  <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
-    <t>경상도_창원시_마산회원구</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/gu/11100/12100/12138.web?cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_창원시_진해구</t>
-  </si>
-  <si>
-    <t>https://www.changwon.go.kr/cwportal/gu/11101/12355/12400.web</t>
-  </si>
-  <si>
-    <t>경상도_거제시</t>
-  </si>
-  <si>
-    <t>https://www.geoje.go.kr/index.geoje?menuCd=DOM_000008902001002001&amp;listRow=90</t>
-  </si>
-  <si>
-    <t>경상도_김해시</t>
-  </si>
-  <si>
-    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>https://www.gimhae.go.kr/03360/00023/00024.web?gcode=1171&amp;cpage=1</t>
+    <t>밀양시가족센터 토요일 토요일은 아빠와 함께 &lt;콩땅콩땅 샤인해&gt; 새글 ○ 일시: 9-13(토) 10</t>
   </si>
   <si>
     <t>청소년수련활동인증프로그램  활동기록확인서 발급 방법 안내 새 글 * 인증활동 확인서는 사전에 미리 회원가입을 반드시 진행해야 합니다-
@@ -1269,178 +1434,13 @@
  * 소속 학교 , 학년, 반  확인 꼭 부탁드립니다:) 2025-08-23 담당부서 : 아동청소년과 문지현 조회수 : 67</t>
   </si>
   <si>
-    <t>경상도_밀양시</t>
-  </si>
-  <si>
-    <t>https://www.miryang.go.kr/web/eMinwonList.do?mnNo=20903000000&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>https://www.miryang.go.kr/web/bbs/selectNoticeList.do?mnNo=20901000000&amp;owd=&amp;searchCnd=&amp;searchWrd=&amp;searchCateId=&amp;pageIndex=1</t>
-  </si>
-  <si>
-    <t>밀양시가족센터 토요일 토요일은 아빠와 함께 &lt;콩땅콩땅 샤인해&gt; 새글 ○ 일시: 9-13(토) 10</t>
-  </si>
-  <si>
-    <t>경상도_사천시</t>
-  </si>
-  <si>
-    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=1</t>
-  </si>
-  <si>
-    <t>공고기간 : 2025-08-25</t>
-  </si>
-  <si>
-    <t>경상도_양산시</t>
-  </si>
-  <si>
-    <t>https://www.yangsan.go.kr/portal/saeol/gosi/list.do?mid=0102010000</t>
-  </si>
-  <si>
-    <t>https://www.yangsan.go.kr/portal/board/post/list.do?bcIdx=293&amp;mid=0101010000</t>
-  </si>
-  <si>
-    <t>경상도_진주시</t>
-  </si>
-  <si>
-    <t>https://www.jinju.go.kr/00130/02730/05586.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_통영시</t>
-  </si>
-  <si>
-    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_남해읍</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%82%A8%ED%95%B4%EC%9D%8D&amp;pageCd=WW0512010103&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_산청군</t>
-  </si>
-  <si>
-    <t>https://www.sancheong.go.kr/www/selectBbsNttList.do?bbsNo=118&amp;key=158&amp;pageUnit=90</t>
-  </si>
-  <si>
     <t>2025-08-25-</t>
   </si>
   <si>
-    <t>경상도_남해군_이동면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%9D%B4%EB%8F%99%EB%A9%B4&amp;pageCd=WW0512030402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_의령군</t>
-  </si>
-  <si>
-    <t>https://www.uiryeong.go.kr/board/list.uiryeong?boardId=BBS_0000070&amp;menuCd=DOM_000000203003001001&amp;contentsSid=201&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_상주면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%83%81%EC%A3%BC%EB%A9%B4&amp;pageCd=WW0512040402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_창녕군</t>
-  </si>
-  <si>
-    <t>https://www.cng.go.kr/01541/01539/01553.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_삼동면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%82%BC%EB%8F%99%EB%A9%B4&amp;pageCd=WW0512050402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_하동군</t>
-  </si>
-  <si>
-    <t>https://www.hadong.go.kr/media/00012.web?cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_미조면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%AF%B8%EC%A1%B0%EB%A9%B4&amp;pageCd=WW0512060402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_함안군</t>
-  </si>
-  <si>
-    <t>https://www.haman.go.kr/00960/00962.web?&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_남면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EB%82%A8%EB%A9%B4&amp;pageCd=WW0512070402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_함양군</t>
-  </si>
-  <si>
-    <t>https://eminwon.hygn.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,06,07</t>
-  </si>
-  <si>
-    <t>경상도_남해군_서면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%84%9C%EB%A9%B4&amp;pageCd=WW0512080402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
-    <t>경상도_합천군</t>
-  </si>
-  <si>
-    <t>https://eminwon.hc.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,06</t>
-  </si>
-  <si>
-    <t>경상도_남해군_고현면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EA%B3%A0%ED%98%84%EB%A9%B4&amp;pageCd=WW0512090402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>경상도_고성군</t>
-  </si>
-  <si>
-    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_설천면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%84%A4%EC%B2%9C%EB%A9%B4&amp;pageCd=WW0512100402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>경상도_거창군</t>
-  </si>
-  <si>
-    <t>https://www.geochang.go.kr/saeol/gosi.do?pageCd=NW0102000000&amp;siteGubun=news&amp;cpage=1</t>
-  </si>
-  <si>
-    <t>경상도_남해군_창선면</t>
-  </si>
-  <si>
-    <t>https://www.namhae.go.kr/modules/saeol/gosi.do?dep_nm=%EC%B0%BD%EC%84%A0%EB%A9%B4&amp;pageCd=WW0512110402&amp;siteGubun=portal</t>
-  </si>
-  <si>
-    <t>경상도_울릉군</t>
-  </si>
-  <si>
-    <t>https://www.ulleung.go.kr/ko/page.do?pageNo=1&amp;mnu_uid=571</t>
+    <t>2025-08-25(월)</t>
+  </si>
+  <si>
+    <t>2025-08-25 농정과 조회수 : 27</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1845,161 +1845,161 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
         <v>256</v>
-      </c>
-      <c r="B4" t="s">
-        <v>257</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
         <v>311</v>
       </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" t="s">
         <v>313</v>
       </c>
-      <c r="B6" t="s">
-        <v>314</v>
-      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
         <v>323</v>
       </c>
-      <c r="B7" t="s">
-        <v>324</v>
-      </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
         <v>325</v>
       </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
         <v>344</v>
       </c>
-      <c r="B9" t="s">
-        <v>345</v>
-      </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
         <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s">
         <v>355</v>
-      </c>
-      <c r="B13" t="s">
-        <v>356</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2013,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2027,49 +2027,49 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2083,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2125,1029 +2125,1029 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
         <v>114</v>
       </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
         <v>120</v>
       </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
         <v>126</v>
       </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
         <v>128</v>
       </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
         <v>130</v>
       </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
         <v>156</v>
       </c>
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
         <v>166</v>
       </c>
-      <c r="B42" t="s">
-        <v>167</v>
-      </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
         <v>172</v>
       </c>
-      <c r="B43" t="s">
-        <v>173</v>
-      </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
         <v>174</v>
       </c>
-      <c r="B44" t="s">
-        <v>175</v>
-      </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
-        <v>187</v>
-      </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
         <v>196</v>
       </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="B48" t="s">
-        <v>201</v>
-      </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
         <v>208</v>
       </c>
-      <c r="B49" t="s">
-        <v>209</v>
-      </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
         <v>220</v>
       </c>
-      <c r="B50" t="s">
-        <v>221</v>
-      </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
         <v>222</v>
       </c>
-      <c r="B51" t="s">
-        <v>223</v>
-      </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" t="s">
         <v>224</v>
       </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
         <v>231</v>
       </c>
-      <c r="B53" t="s">
-        <v>232</v>
-      </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
         <v>235</v>
       </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" t="s">
         <v>241</v>
       </c>
-      <c r="B55" t="s">
-        <v>242</v>
-      </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
         <v>258</v>
       </c>
-      <c r="B56" t="s">
-        <v>259</v>
-      </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" t="s">
         <v>260</v>
       </c>
-      <c r="B57" t="s">
-        <v>261</v>
-      </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" t="s">
         <v>262</v>
       </c>
-      <c r="B58" t="s">
-        <v>263</v>
-      </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" t="s">
         <v>267</v>
       </c>
-      <c r="B59" t="s">
-        <v>268</v>
-      </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" t="s">
         <v>269</v>
       </c>
-      <c r="B60" t="s">
-        <v>270</v>
-      </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" t="s">
         <v>271</v>
       </c>
-      <c r="B61" t="s">
-        <v>272</v>
-      </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" t="s">
         <v>277</v>
       </c>
-      <c r="B62" t="s">
-        <v>278</v>
-      </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
         <v>281</v>
       </c>
-      <c r="B63" t="s">
-        <v>282</v>
-      </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" t="s">
         <v>283</v>
       </c>
-      <c r="B64" t="s">
-        <v>284</v>
-      </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" t="s">
         <v>289</v>
       </c>
-      <c r="B65" t="s">
-        <v>290</v>
-      </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" t="s">
         <v>293</v>
       </c>
-      <c r="B66" t="s">
-        <v>294</v>
-      </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" t="s">
         <v>295</v>
       </c>
-      <c r="B67" t="s">
-        <v>296</v>
-      </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
         <v>297</v>
       </c>
-      <c r="B68" t="s">
-        <v>298</v>
-      </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
         <v>299</v>
       </c>
-      <c r="B69" t="s">
-        <v>300</v>
-      </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" t="s">
         <v>301</v>
       </c>
-      <c r="B70" t="s">
-        <v>302</v>
-      </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
         <v>303</v>
       </c>
-      <c r="B71" t="s">
-        <v>304</v>
-      </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" t="s">
         <v>319</v>
       </c>
-      <c r="B72" t="s">
-        <v>320</v>
-      </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
+        <v>335</v>
+      </c>
+      <c r="B73" t="s">
         <v>336</v>
       </c>
-      <c r="B73" t="s">
-        <v>337</v>
-      </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" t="s">
         <v>338</v>
       </c>
-      <c r="B74" t="s">
-        <v>339</v>
-      </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" t="s">
         <v>340</v>
       </c>
-      <c r="B75" t="s">
-        <v>341</v>
-      </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" t="s">
         <v>342</v>
       </c>
-      <c r="B76" t="s">
-        <v>343</v>
-      </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" t="s">
         <v>351</v>
       </c>
-      <c r="B77" t="s">
-        <v>352</v>
-      </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B80" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B84" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B87" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B91" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B92" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B93" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B94" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3175,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3189,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3203,337 +3203,337 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
         <v>91</v>
-      </c>
-      <c r="B100" t="s">
-        <v>92</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
         <v>93</v>
-      </c>
-      <c r="B101" t="s">
-        <v>94</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
         <v>118</v>
-      </c>
-      <c r="B102" t="s">
-        <v>119</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s">
         <v>122</v>
-      </c>
-      <c r="B103" t="s">
-        <v>123</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" t="s">
         <v>138</v>
-      </c>
-      <c r="B104" t="s">
-        <v>139</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
         <v>140</v>
-      </c>
-      <c r="B105" t="s">
-        <v>141</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" t="s">
         <v>148</v>
-      </c>
-      <c r="B106" t="s">
-        <v>149</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
         <v>152</v>
-      </c>
-      <c r="B107" t="s">
-        <v>153</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
         <v>154</v>
-      </c>
-      <c r="B108" t="s">
-        <v>155</v>
       </c>
       <c r="C108">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" t="s">
         <v>158</v>
-      </c>
-      <c r="B109" t="s">
-        <v>159</v>
       </c>
       <c r="C109">
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" t="s">
         <v>168</v>
-      </c>
-      <c r="B110" t="s">
-        <v>169</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" t="s">
         <v>182</v>
-      </c>
-      <c r="B111" t="s">
-        <v>183</v>
       </c>
       <c r="C111">
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" t="s">
         <v>192</v>
-      </c>
-      <c r="B112" t="s">
-        <v>193</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" t="s">
         <v>206</v>
-      </c>
-      <c r="B113" t="s">
-        <v>207</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s">
         <v>218</v>
-      </c>
-      <c r="B114" t="s">
-        <v>219</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
         <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>227</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
         <v>233</v>
-      </c>
-      <c r="B116" t="s">
-        <v>234</v>
       </c>
       <c r="C116">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
         <v>239</v>
-      </c>
-      <c r="B117" t="s">
-        <v>240</v>
       </c>
       <c r="C117">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" t="s">
         <v>251</v>
-      </c>
-      <c r="B118" t="s">
-        <v>252</v>
       </c>
       <c r="C118">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
         <v>254</v>
-      </c>
-      <c r="B119" t="s">
-        <v>255</v>
       </c>
       <c r="C119">
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" t="s">
         <v>273</v>
-      </c>
-      <c r="B120" t="s">
-        <v>274</v>
       </c>
       <c r="C120">
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
+        <v>274</v>
+      </c>
+      <c r="B121" t="s">
         <v>275</v>
-      </c>
-      <c r="B121" t="s">
-        <v>276</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" t="s">
         <v>285</v>
-      </c>
-      <c r="B122" t="s">
-        <v>286</v>
       </c>
       <c r="C122">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" t="s">
         <v>287</v>
-      </c>
-      <c r="B123" t="s">
-        <v>288</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -3544,226 +3544,226 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
         <v>291</v>
-      </c>
-      <c r="B124" t="s">
-        <v>292</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" t="s">
         <v>305</v>
-      </c>
-      <c r="B125" t="s">
-        <v>306</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
+        <v>308</v>
+      </c>
+      <c r="B126" t="s">
         <v>309</v>
-      </c>
-      <c r="B126" t="s">
-        <v>310</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
+        <v>314</v>
+      </c>
+      <c r="B127" t="s">
         <v>315</v>
-      </c>
-      <c r="B127" t="s">
-        <v>316</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" t="s">
         <v>317</v>
-      </c>
-      <c r="B128" t="s">
-        <v>318</v>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
+        <v>320</v>
+      </c>
+      <c r="B129" t="s">
         <v>321</v>
-      </c>
-      <c r="B129" t="s">
-        <v>322</v>
       </c>
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" t="s">
         <v>327</v>
-      </c>
-      <c r="B130" t="s">
-        <v>328</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" t="s">
         <v>332</v>
-      </c>
-      <c r="B131" t="s">
-        <v>333</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
+        <v>346</v>
+      </c>
+      <c r="B132" t="s">
         <v>347</v>
-      </c>
-      <c r="B132" t="s">
-        <v>348</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B133" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C134">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B135" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B136" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C136">
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B138" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C138">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C139">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3805,99 +3805,99 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" t="s">
         <v>83</v>
-      </c>
-      <c r="B143" t="s">
-        <v>84</v>
       </c>
       <c r="C143">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" t="s">
         <v>87</v>
-      </c>
-      <c r="B144" t="s">
-        <v>88</v>
       </c>
       <c r="C144">
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
         <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>145</v>
       </c>
       <c r="C145">
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" t="s">
         <v>170</v>
-      </c>
-      <c r="B146" t="s">
-        <v>171</v>
       </c>
       <c r="C146">
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" t="s">
         <v>176</v>
-      </c>
-      <c r="B147" t="s">
-        <v>177</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" t="s">
         <v>184</v>
-      </c>
-      <c r="B148" t="s">
-        <v>185</v>
       </c>
       <c r="C148">
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" t="s">
         <v>204</v>
-      </c>
-      <c r="B149" t="s">
-        <v>205</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -3908,38 +3908,38 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" t="s">
         <v>210</v>
-      </c>
-      <c r="B150" t="s">
-        <v>211</v>
       </c>
       <c r="C150">
         <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
+        <v>211</v>
+      </c>
+      <c r="B151" t="s">
         <v>212</v>
-      </c>
-      <c r="B151" t="s">
-        <v>213</v>
       </c>
       <c r="C151">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" t="s">
         <v>214</v>
-      </c>
-      <c r="B152" t="s">
-        <v>215</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -3950,128 +3950,128 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153" t="s">
         <v>216</v>
-      </c>
-      <c r="B153" t="s">
-        <v>217</v>
       </c>
       <c r="C153">
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154" t="s">
         <v>243</v>
-      </c>
-      <c r="B154" t="s">
-        <v>244</v>
       </c>
       <c r="C154">
         <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
         <v>307</v>
-      </c>
-      <c r="B155" t="s">
-        <v>308</v>
       </c>
       <c r="C155">
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B156" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C157">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C158">
         <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" t="s">
         <v>370</v>
-      </c>
-      <c r="B159" t="s">
-        <v>372</v>
       </c>
       <c r="C159">
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
+        <v>373</v>
+      </c>
+      <c r="B160" t="s">
         <v>375</v>
-      </c>
-      <c r="B160" t="s">
-        <v>377</v>
       </c>
       <c r="C160">
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B161" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C161">
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4090,52 +4090,52 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" t="s">
         <v>180</v>
-      </c>
-      <c r="B163" t="s">
-        <v>181</v>
       </c>
       <c r="C163">
         <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164" t="s">
         <v>190</v>
-      </c>
-      <c r="B164" t="s">
-        <v>191</v>
       </c>
       <c r="C164">
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165" t="s">
         <v>198</v>
-      </c>
-      <c r="B165" t="s">
-        <v>199</v>
       </c>
       <c r="C165">
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
         <v>228</v>
-      </c>
-      <c r="B166" t="s">
-        <v>229</v>
       </c>
       <c r="C166">
         <v>6</v>
@@ -4146,38 +4146,38 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" t="s">
         <v>279</v>
-      </c>
-      <c r="B167" t="s">
-        <v>280</v>
       </c>
       <c r="C167">
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
+        <v>357</v>
+      </c>
+      <c r="B168" t="s">
         <v>359</v>
-      </c>
-      <c r="B168" t="s">
-        <v>361</v>
       </c>
       <c r="C168">
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
+        <v>378</v>
+      </c>
+      <c r="B169" t="s">
         <v>380</v>
-      </c>
-      <c r="B169" t="s">
-        <v>382</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -4188,30 +4188,30 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C170">
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B171" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C171">
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4239,77 +4239,77 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" t="s">
         <v>160</v>
-      </c>
-      <c r="B174" t="s">
-        <v>161</v>
       </c>
       <c r="C174">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" t="s">
         <v>194</v>
-      </c>
-      <c r="B175" t="s">
-        <v>195</v>
       </c>
       <c r="C175">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" t="s">
         <v>246</v>
-      </c>
-      <c r="B176" t="s">
-        <v>247</v>
       </c>
       <c r="C176">
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C177">
         <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C178">
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4328,44 +4328,44 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B180" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C180">
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B181" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C181">
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B182" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C182">
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4398,136 +4398,136 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C185">
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" t="s">
         <v>102</v>
-      </c>
-      <c r="B186" t="s">
-        <v>103</v>
       </c>
       <c r="C186">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" t="s">
         <v>110</v>
-      </c>
-      <c r="B187" t="s">
-        <v>111</v>
       </c>
       <c r="C187">
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" t="s">
         <v>264</v>
-      </c>
-      <c r="B188" t="s">
-        <v>265</v>
       </c>
       <c r="C188">
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C189">
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B190" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C190">
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C191">
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B192" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C192">
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C193">
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C194">
         <v>9</v>
@@ -4538,16 +4538,16 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B195" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C195">
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4589,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4603,127 +4603,127 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" t="s">
         <v>150</v>
-      </c>
-      <c r="B200" t="s">
-        <v>151</v>
       </c>
       <c r="C200">
         <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" t="s">
         <v>249</v>
-      </c>
-      <c r="B201" t="s">
-        <v>250</v>
       </c>
       <c r="C201">
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C202">
         <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
+        <v>364</v>
+      </c>
+      <c r="B203" t="s">
         <v>366</v>
-      </c>
-      <c r="B203" t="s">
-        <v>368</v>
       </c>
       <c r="C203">
         <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B204" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C204">
         <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B205" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C205">
         <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B206" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C206">
         <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B207" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C207">
         <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B208" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C208">
         <v>10</v>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B209" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C209">
         <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4762,44 +4762,44 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C211">
         <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C212">
         <v>11</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
+        <v>94</v>
+      </c>
+      <c r="B213" t="s">
         <v>95</v>
-      </c>
-      <c r="B213" t="s">
-        <v>96</v>
       </c>
       <c r="C213">
         <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4827,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4841,15 +4841,15 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
+        <v>133</v>
+      </c>
+      <c r="B217" t="s">
         <v>134</v>
-      </c>
-      <c r="B217" t="s">
-        <v>135</v>
       </c>
       <c r="C217">
         <v>16</v>
@@ -4860,72 +4860,72 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C218">
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" t="s">
         <v>202</v>
-      </c>
-      <c r="B219" t="s">
-        <v>203</v>
       </c>
       <c r="C219">
         <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
+        <v>333</v>
+      </c>
+      <c r="B220" t="s">
         <v>334</v>
-      </c>
-      <c r="B220" t="s">
-        <v>335</v>
       </c>
       <c r="C220">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
+        <v>163</v>
+      </c>
+      <c r="B221" t="s">
         <v>164</v>
-      </c>
-      <c r="B221" t="s">
-        <v>165</v>
       </c>
       <c r="C221">
         <v>18</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C222">
         <v>18</v>
       </c>
       <c r="D222" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4944,16 +4944,16 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224" t="s">
         <v>349</v>
-      </c>
-      <c r="B224" t="s">
-        <v>350</v>
       </c>
       <c r="C224">
         <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4967,7 +4967,7 @@
         <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4981,63 +4981,63 @@
         <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
+        <v>107</v>
+      </c>
+      <c r="B227" t="s">
         <v>108</v>
-      </c>
-      <c r="B227" t="s">
-        <v>109</v>
       </c>
       <c r="C227">
         <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
+        <v>177</v>
+      </c>
+      <c r="B228" t="s">
         <v>178</v>
-      </c>
-      <c r="B228" t="s">
-        <v>179</v>
       </c>
       <c r="C228">
         <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
+        <v>329</v>
+      </c>
+      <c r="B229" t="s">
         <v>330</v>
-      </c>
-      <c r="B229" t="s">
-        <v>331</v>
       </c>
       <c r="C229">
         <v>36</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C230">
         <v>50</v>
       </c>
       <c r="D230" t="s">
-        <v>389</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
